--- a/flask/v5/templates/data_residential.xlsx
+++ b/flask/v5/templates/data_residential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelmah\Desktop\codes\bess-optimizer\flask\v5\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B24BA1-91C4-40EF-85E4-B70075D86E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DA6423-D246-40E6-AA43-CB5A17283715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6021,8 +6021,8 @@
   </sheetPr>
   <dimension ref="A1:H993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="G334" sqref="G334"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="F343" sqref="F343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="17">
-        <v>0.38123011836981507</v>
+        <v>0.48415948562387912</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
@@ -6085,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="17">
-        <v>0.31935755841048802</v>
+        <v>0.49264303707242868</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
@@ -6096,7 +6096,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="17">
-        <v>0.21106441914534971</v>
+        <v>0.50112658852097824</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
@@ -6107,7 +6107,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="17">
-        <v>0.36910552128254148</v>
+        <v>0.50173637780118929</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
@@ -6118,7 +6118,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="17">
-        <v>0.36221790699049039</v>
+        <v>0.50234616708140056</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
@@ -6129,7 +6129,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="17">
-        <v>0.37637585478198787</v>
+        <v>0.49361151276656379</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
@@ -6140,7 +6140,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="17">
-        <v>0.16650325479374911</v>
+        <v>0.48487685845172712</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
@@ -6151,7 +6151,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="17">
-        <v>0.40506555889896839</v>
+        <v>0.47462542153514437</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
@@ -6162,7 +6162,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="17">
-        <v>0.17477663887841821</v>
+        <v>0.46437398461856166</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -6173,7 +6173,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="17">
-        <v>0.13445682208374049</v>
+        <v>0.4666703497119602</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
@@ -6184,7 +6184,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="17">
-        <v>0.37414967560834822</v>
+        <v>0.46896671480535879</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
@@ -6195,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="17">
-        <v>0.35518817410612691</v>
+        <v>0.23448335740267939</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
@@ -6206,7 +6206,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="17">
-        <v>1.811705835396477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
@@ -6217,7 +6217,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="17">
-        <v>2.1601659462422971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -6228,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="17">
-        <v>2.0301177110383501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -6239,7 +6239,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="17">
-        <v>1.8991857048078891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
@@ -6250,7 +6250,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="17">
-        <v>1.8922172515543549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -6261,7 +6261,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="17">
-        <v>2.0603109120728309</v>
+        <v>0.14122533970045523</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
@@ -6272,7 +6272,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="17">
-        <v>2.168119244191733</v>
+        <v>0.28245067940091045</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
@@ -6283,7 +6283,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="17">
-        <v>0.7889497015345952</v>
+        <v>0.27102278918999401</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
@@ -6294,7 +6294,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="17">
-        <v>0.91464714026767036</v>
+        <v>0.25959489897907756</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
@@ -6305,7 +6305,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="17">
-        <v>1.2964216065524541</v>
+        <v>0.14885322481643751</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
@@ -6316,7 +6316,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="17">
-        <v>1.481159965389083</v>
+        <v>3.8111550653797462E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
@@ -6327,7 +6327,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="17">
-        <v>1.633058042371029</v>
+        <v>3.8384407444643942E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -6338,7 +6338,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="17">
-        <v>1.870707931688085</v>
+        <v>3.8657264235490416E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
@@ -6349,7 +6349,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="17">
-        <v>1.864471837521362</v>
+        <v>3.9325814425709149E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
@@ -6360,7 +6360,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="17">
-        <v>2.14924051930856</v>
+        <v>3.9994364615927883E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
@@ -6371,7 +6371,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="17">
-        <v>1.9462604770099989</v>
+        <v>1.9997182307963941E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
@@ -6382,7 +6382,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="17">
-        <v>1.7641244244859771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
@@ -6393,7 +6393,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="17">
-        <v>1.5539672031542411</v>
+        <v>2.5491633537388522E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
@@ -6404,7 +6404,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="17">
-        <v>1.451768420149159</v>
+        <v>5.0983267074777044E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
@@ -6415,7 +6415,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="17">
-        <v>1.245131284813664</v>
+        <v>4.5995513140017437E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
@@ -6426,7 +6426,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="17">
-        <v>0.96116794501371161</v>
+        <v>4.1007759205257822E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
@@ -6437,7 +6437,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="17">
-        <v>0.76050215704840007</v>
+        <v>0.19442131071040472</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
@@ -6448,7 +6448,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="17">
-        <v>2.1776650265787691</v>
+        <v>0.3478348622155516</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
@@ -6459,7 +6459,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="17">
-        <v>2.1180778133956739</v>
+        <v>0.30229646965108681</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
@@ -6470,7 +6470,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="17">
-        <v>1.9446066191372271</v>
+        <v>0.25675807708662191</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
@@ -6481,7 +6481,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="17">
-        <v>1.8266404116518291</v>
+        <v>0.23438331316298602</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
@@ -6492,7 +6492,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="17">
-        <v>1.889564609995795</v>
+        <v>0.21200854923935014</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
@@ -6503,7 +6503,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="17">
-        <v>1.8139927564579961</v>
+        <v>0.34280555110078487</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -6514,7 +6514,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="17">
-        <v>1.9945086138544319</v>
+        <v>0.47360255296221959</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
@@ -6525,7 +6525,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="17">
-        <v>2.0786679347788568</v>
+        <v>0.7328683123123122</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
@@ -6536,7 +6536,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="17">
-        <v>2.0973634814776618</v>
+        <v>0.99213407166240497</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
@@ -6547,7 +6547,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="17">
-        <v>0.1699361207938071</v>
+        <v>0.90215975324994724</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.5">
@@ -6558,7 +6558,7 @@
         <v>45</v>
       </c>
       <c r="C53" s="17">
-        <v>0.1266056224431375</v>
+        <v>0.8121854348374894</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
@@ -6569,7 +6569,7 @@
         <v>46</v>
       </c>
       <c r="C54" s="17">
-        <v>0.25361164570594352</v>
+        <v>0.80150974982997403</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
@@ -6580,7 +6580,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="17">
-        <v>0.15275824482515379</v>
+        <v>0.79083406482245866</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -6591,7 +6591,7 @@
         <v>48</v>
       </c>
       <c r="C56" s="17">
-        <v>0.1463436670265971</v>
+        <v>0.68622162230438455</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="17">
-        <v>0.1022586657926166</v>
+        <v>0.58160917978631033</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="17">
-        <v>0.42532788214852008</v>
+        <v>0.56464512415320023</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.5">
@@ -6627,7 +6627,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="17">
-        <v>0.14843216984733801</v>
+        <v>0.55341921003640149</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.5">
@@ -6639,7 +6639,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="17">
-        <v>0.29763706886858832</v>
+        <v>0.53649945247880493</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.5">
@@ -6651,7 +6651,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="17">
-        <v>0.36911573366751449</v>
+        <v>0.51685295606992487</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.5">
@@ -6663,7 +6663,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="17">
-        <v>0.19662246927876559</v>
+        <v>0.50151613847040122</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.5">
@@ -6675,7 +6675,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="17">
-        <v>0.1461340284487285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.5">
@@ -6687,7 +6687,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="17">
-        <v>0.45349962357331991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.5">
@@ -6699,7 +6699,7 @@
         <v>9</v>
       </c>
       <c r="C65" s="17">
-        <v>0.13981438503935029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.5">
@@ -6711,7 +6711,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="17">
-        <v>0.49716607183733991</v>
+        <v>0.29207391385064846</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.5">
@@ -6723,7 +6723,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="17">
-        <v>0.38660099558387379</v>
+        <v>0.21225918136872976</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.5">
@@ -6735,7 +6735,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="17">
-        <v>0.12893445192096789</v>
+        <v>5.4979693726669034E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.5">
@@ -6747,7 +6747,7 @@
         <v>13</v>
       </c>
       <c r="C69" s="17">
-        <v>1.982522968229937</v>
+        <v>4.2023577097414208E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.5">
@@ -6759,7 +6759,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="17">
-        <v>2.0050330272239281</v>
+        <v>4.2354944853852425E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.5">
@@ -6771,7 +6771,7 @@
         <v>15</v>
       </c>
       <c r="C71" s="17">
-        <v>1.9347416140949469</v>
+        <v>4.2495305119459821E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.5">
@@ -6783,7 +6783,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="17">
-        <v>1.941514193668664</v>
+        <v>4.2400930151651646E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.5">
@@ -6795,7 +6795,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="17">
-        <v>1.8946821187075431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.5">
@@ -6807,7 +6807,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="17">
-        <v>1.98430626290402</v>
+        <v>0.30338281483610918</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.5">
@@ -6819,7 +6819,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="17">
-        <v>1.8007369544198031</v>
+        <v>0.2172481632531453</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.5">
@@ -6831,7 +6831,7 @@
         <v>20</v>
       </c>
       <c r="C76" s="17">
-        <v>0.64330254586207369</v>
+        <v>0.21276031811570434</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.5">
@@ -6843,7 +6843,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="17">
-        <v>1.138456492740328</v>
+        <v>0.47035819495039172</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.5">
@@ -6855,7 +6855,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="17">
-        <v>1.0919415433566959</v>
+        <v>0.99344287881105653</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.5">
@@ -6867,7 +6867,7 @@
         <v>23</v>
       </c>
       <c r="C79" s="17">
-        <v>1.5328782310141991</v>
+        <v>0.82986842120408655</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.5">
@@ -6879,7 +6879,7 @@
         <v>24</v>
       </c>
       <c r="C80" s="17">
-        <v>1.5195744602528061</v>
+        <v>0.80441519139554429</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.5">
@@ -6891,7 +6891,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="17">
-        <v>1.775225882398118</v>
+        <v>0.57312715196975528</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.5">
@@ -6903,7 +6903,7 @@
         <v>26</v>
       </c>
       <c r="C82" s="17">
-        <v>1.8940120107039431</v>
+        <v>0.55903216709480086</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.5">
@@ -6915,7 +6915,7 @@
         <v>27</v>
       </c>
       <c r="C83" s="17">
-        <v>1.8280402826722391</v>
+        <v>0.54495933125760321</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.5">
@@ -6927,7 +6927,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="17">
-        <v>1.7919476531694321</v>
+        <v>0.5266762042743649</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.5">
@@ -6939,7 +6939,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="17">
-        <v>1.982397371322008</v>
+        <v>0.50918454727016305</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.5">
@@ -6951,7 +6951,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="17">
-        <v>1.863635576897092</v>
+        <v>0.25075806923520061</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.5">
@@ -6963,7 +6963,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="17">
-        <v>1.537978055258151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.5">
@@ -6975,7 +6975,7 @@
         <v>32</v>
       </c>
       <c r="C88" s="17">
-        <v>1.4062266799352541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.5">
@@ -6987,7 +6987,7 @@
         <v>33</v>
       </c>
       <c r="C89" s="17">
-        <v>1.004840838076656</v>
+        <v>0.14603695692532423</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.5">
@@ -6999,7 +6999,7 @@
         <v>34</v>
       </c>
       <c r="C90" s="17">
-        <v>0.51462202577198068</v>
+        <v>0.2521665476096891</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.5">
@@ -7011,7 +7011,7 @@
         <v>35</v>
       </c>
       <c r="C91" s="17">
-        <v>1.833530979241635</v>
+        <v>0.13361943754769939</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.5">
@@ -7023,7 +7023,7 @@
         <v>36</v>
       </c>
       <c r="C92" s="17">
-        <v>1.940416139120688</v>
+        <v>4.8501635412041624E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.5">
@@ -7035,7 +7035,7 @@
         <v>37</v>
       </c>
       <c r="C93" s="17">
-        <v>1.962052971527781</v>
+        <v>4.2189260975633316E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.5">
@@ -7047,7 +7047,7 @@
         <v>38</v>
       </c>
       <c r="C94" s="17">
-        <v>1.954994560505442</v>
+        <v>4.2425124986656119E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.5">
@@ -7059,7 +7059,7 @@
         <v>39</v>
       </c>
       <c r="C95" s="17">
-        <v>2.0957652178020032</v>
+        <v>4.2448117635555734E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.5">
@@ -7071,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="C96" s="17">
-        <v>1.999770656297944</v>
+        <v>2.1200465075825823E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.5">
@@ -7083,7 +7083,7 @@
         <v>41</v>
       </c>
       <c r="C97" s="17">
-        <v>1.8951726740923971</v>
+        <v>0.15169140741805459</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.5">
@@ -7095,7 +7095,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="17">
-        <v>2.0430907711236661</v>
+        <v>0.2603154890446272</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.5">
@@ -7107,7 +7107,7 @@
         <v>43</v>
       </c>
       <c r="C99" s="17">
-        <v>1.820087227979488</v>
+        <v>0.21500424068442481</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.5">
@@ -7119,7 +7119,7 @@
         <v>44</v>
       </c>
       <c r="C100" s="17">
-        <v>0.43555024760903061</v>
+        <v>0.34155925653304803</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.5">
@@ -7131,7 +7131,7 @@
         <v>45</v>
       </c>
       <c r="C101" s="17">
-        <v>0.28659854560191972</v>
+        <v>0.7319005368807241</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.5">
@@ -7143,7 +7143,7 @@
         <v>46</v>
       </c>
       <c r="C102" s="17">
-        <v>0.465908271815139</v>
+        <v>0.91165565000757154</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.5">
@@ -7155,7 +7155,7 @@
         <v>47</v>
       </c>
       <c r="C103" s="17">
-        <v>0.30064755985305552</v>
+        <v>0.81714180629981548</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.5">
@@ -7167,7 +7167,7 @@
         <v>48</v>
       </c>
       <c r="C104" s="17">
-        <v>0.14656874587648769</v>
+        <v>0.69448262618266554</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.5">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="17">
-        <v>0.48070476186032962</v>
+        <v>0.58455006096978668</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.5">
@@ -7191,7 +7191,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="17">
-        <v>0.47456427463881068</v>
+        <v>0.57738719911047043</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.5">
@@ -7203,7 +7203,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="17">
-        <v>0.13767896670822971</v>
+        <v>0.5648705026253904</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.5">
@@ -7215,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="C108" s="17">
-        <v>0.26753885645182851</v>
+        <v>0.54765617898866426</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.5">
@@ -7227,7 +7227,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="17">
-        <v>0.12101750743413239</v>
+        <v>0.53769991523351046</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.5">
@@ -7239,7 +7239,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="17">
-        <v>0.47289862592109982</v>
+        <v>0.52656829221974255</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.5">
@@ -7251,7 +7251,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="17">
-        <v>0.4787414820121112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.5">
@@ -7263,7 +7263,7 @@
         <v>8</v>
       </c>
       <c r="C112" s="17">
-        <v>0.10444668178630211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.5">
@@ -7275,7 +7275,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="17">
-        <v>0.46698303177192257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.5">
@@ -7287,7 +7287,7 @@
         <v>10</v>
       </c>
       <c r="C114" s="17">
-        <v>0.37504278223613258</v>
+        <v>0.29128629400965039</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.5">
@@ -7299,7 +7299,7 @@
         <v>11</v>
       </c>
       <c r="C115" s="17">
-        <v>0.2531877161418985</v>
+        <v>0.2146106628248852</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.5">
@@ -7311,7 +7311,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="17">
-        <v>0.38383553606900628</v>
+        <v>5.555639737148526E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.5">
@@ -7323,7 +7323,7 @@
         <v>13</v>
       </c>
       <c r="C117" s="17">
-        <v>1.9169809514922691</v>
+        <v>4.2069848704189367E-2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.5">
@@ -7335,7 +7335,7 @@
         <v>14</v>
       </c>
       <c r="C118" s="17">
-        <v>1.882123297842299</v>
+        <v>4.2683977881909217E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.5">
@@ -7347,7 +7347,7 @@
         <v>15</v>
       </c>
       <c r="C119" s="17">
-        <v>2.0452440285766431</v>
+        <v>4.3518074307498433E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.5">
@@ -7359,7 +7359,7 @@
         <v>16</v>
       </c>
       <c r="C120" s="17">
-        <v>1.8200970447035569</v>
+        <v>4.3596896266815871E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.5">
@@ -7371,7 +7371,7 @@
         <v>17</v>
       </c>
       <c r="C121" s="17">
-        <v>1.991073099900837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.5">
@@ -7383,7 +7383,7 @@
         <v>18</v>
       </c>
       <c r="C122" s="17">
-        <v>1.9973754016411569</v>
+        <v>0.3063251019933193</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.5">
@@ -7395,7 +7395,7 @@
         <v>19</v>
       </c>
       <c r="C123" s="17">
-        <v>2.026362053250256</v>
+        <v>0.21724978329711206</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.5">
@@ -7407,7 +7407,7 @@
         <v>20</v>
       </c>
       <c r="C124" s="17">
-        <v>0.72391126304148556</v>
+        <v>0.21121772984148518</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.5">
@@ -7419,7 +7419,7 @@
         <v>21</v>
       </c>
       <c r="C125" s="17">
-        <v>0.80341250869516323</v>
+        <v>0.47326248853019809</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.5">
@@ -7431,7 +7431,7 @@
         <v>22</v>
       </c>
       <c r="C126" s="17">
-        <v>1.117522023945696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.5">
@@ -7443,7 +7443,7 @@
         <v>23</v>
       </c>
       <c r="C127" s="17">
-        <v>1.3221897827061231</v>
+        <v>0.82334825913088872</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.5">
@@ -7455,7 +7455,7 @@
         <v>24</v>
       </c>
       <c r="C128" s="17">
-        <v>1.759063925769089</v>
+        <v>0.8043437373487029</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.5">
@@ -7467,7 +7467,7 @@
         <v>25</v>
       </c>
       <c r="C129" s="17">
-        <v>2.0635177778613292</v>
+        <v>0.58096863004012855</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.5">
@@ -7479,7 +7479,7 @@
         <v>26</v>
       </c>
       <c r="C130" s="17">
-        <v>1.8728019780825871</v>
+        <v>0.57112885086793042</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.5">
@@ -7491,7 +7491,7 @@
         <v>27</v>
       </c>
       <c r="C131" s="17">
-        <v>2.134231097219057</v>
+        <v>0.55626334080702733</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.5">
@@ -7503,7 +7503,7 @@
         <v>28</v>
       </c>
       <c r="C132" s="17">
-        <v>1.8205749293670681</v>
+        <v>0.54267804711108736</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.5">
@@ -7515,7 +7515,7 @@
         <v>29</v>
       </c>
       <c r="C133" s="17">
-        <v>1.7799663629946161</v>
+        <v>0.5321341037266264</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.5">
@@ -7527,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="C134" s="17">
-        <v>1.6022918055267059</v>
+        <v>0.26328414610987128</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.5">
@@ -7539,7 +7539,7 @@
         <v>31</v>
       </c>
       <c r="C135" s="17">
-        <v>1.3820053420467671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.5">
@@ -7551,7 +7551,7 @@
         <v>32</v>
       </c>
       <c r="C136" s="17">
-        <v>1.200778082769548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.5">
@@ -7563,7 +7563,7 @@
         <v>33</v>
       </c>
       <c r="C137" s="17">
-        <v>1.003153066407025</v>
+        <v>0.1456431470048252</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.5">
@@ -7575,7 +7575,7 @@
         <v>34</v>
       </c>
       <c r="C138" s="17">
-        <v>0.7519615251674483</v>
+        <v>0.25294847841726781</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.5">
@@ -7587,7 +7587,7 @@
         <v>35</v>
       </c>
       <c r="C139" s="17">
-        <v>2.0981838725586242</v>
+        <v>0.13508353009818522</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.5">
@@ -7599,7 +7599,7 @@
         <v>36</v>
       </c>
       <c r="C140" s="17">
-        <v>2.0381517626726722</v>
+        <v>4.881312303783731E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.5">
@@ -7611,7 +7611,7 @@
         <v>37</v>
       </c>
       <c r="C141" s="17">
-        <v>1.883217742885728</v>
+        <v>4.2376913293049288E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.5">
@@ -7623,7 +7623,7 @@
         <v>38</v>
       </c>
       <c r="C142" s="17">
-        <v>2.0146269812154909</v>
+        <v>4.3101026094703829E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.5">
@@ -7635,7 +7635,7 @@
         <v>39</v>
       </c>
       <c r="C143" s="17">
-        <v>1.989903219573445</v>
+        <v>4.3557485287157152E-2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.5">
@@ -7647,7 +7647,7 @@
         <v>40</v>
       </c>
       <c r="C144" s="17">
-        <v>1.8621911515077221</v>
+        <v>2.1798448133407936E-2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.5">
@@ -7659,7 +7659,7 @@
         <v>41</v>
       </c>
       <c r="C145" s="17">
-        <v>1.8112648880940749</v>
+        <v>0.15316255099665965</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.5">
@@ -7671,7 +7671,7 @@
         <v>42</v>
       </c>
       <c r="C146" s="17">
-        <v>2.1753941007322481</v>
+        <v>0.2617874426452157</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.5">
@@ -7683,7 +7683,7 @@
         <v>43</v>
       </c>
       <c r="C147" s="17">
-        <v>1.948594107458939</v>
+        <v>0.21423375656929861</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.5">
@@ -7695,7 +7695,7 @@
         <v>44</v>
       </c>
       <c r="C148" s="17">
-        <v>0.22521204077199439</v>
+        <v>0.34224010918584163</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.5">
@@ -7707,7 +7707,7 @@
         <v>45</v>
       </c>
       <c r="C149" s="17">
-        <v>0.42883051302886138</v>
+        <v>0.73663124426509907</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.5">
@@ -7719,7 +7719,7 @@
         <v>46</v>
       </c>
       <c r="C150" s="17">
-        <v>0.1132154220157348</v>
+        <v>0.91167412956544436</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.5">
@@ -7731,7 +7731,7 @@
         <v>47</v>
       </c>
       <c r="C151" s="17">
-        <v>0.20419262688879791</v>
+        <v>0.81384599823979586</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.5">
@@ -7743,7 +7743,7 @@
         <v>48</v>
       </c>
       <c r="C152" s="17">
-        <v>0.4720532412552591</v>
+        <v>0.69902082635012075</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.5">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="C153" s="17">
-        <v>0.11101691590320149</v>
+        <v>0.5936979153515386</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.5">
@@ -7767,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="C154" s="17">
-        <v>0.47238255584057293</v>
+        <v>0.57478317502762122</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.5">
@@ -7779,7 +7779,7 @@
         <v>3</v>
       </c>
       <c r="C155" s="17">
-        <v>0.17459293503020451</v>
+        <v>0.56135500862735066</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.5">
@@ -7791,7 +7791,7 @@
         <v>4</v>
       </c>
       <c r="C156" s="17">
-        <v>0.3463786963219031</v>
+        <v>0.54256206860968215</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.5">
@@ -7803,7 +7803,7 @@
         <v>5</v>
       </c>
       <c r="C157" s="17">
-        <v>0.19687765572173149</v>
+        <v>0.51914868226267252</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.5">
@@ -7815,7 +7815,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="17">
-        <v>0.41770539612429081</v>
+        <v>0.50129523184303715</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.5">
@@ -7827,7 +7827,7 @@
         <v>7</v>
       </c>
       <c r="C159" s="17">
-        <v>0.28793153277378941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.5">
@@ -7839,7 +7839,7 @@
         <v>8</v>
       </c>
       <c r="C160" s="17">
-        <v>0.21899215243839759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.5">
@@ -7851,7 +7851,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="17">
-        <v>0.24818632039467911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.5">
@@ -7863,7 +7863,7 @@
         <v>10</v>
       </c>
       <c r="C162" s="17">
-        <v>0.41547962303823133</v>
+        <v>0.28357538188896575</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.5">
@@ -7875,7 +7875,7 @@
         <v>11</v>
       </c>
       <c r="C163" s="17">
-        <v>0.19501885352192799</v>
+        <v>0.20939387259643694</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.5">
@@ -7887,7 +7887,7 @@
         <v>12</v>
       </c>
       <c r="C164" s="17">
-        <v>0.33304036736487941</v>
+        <v>5.4639959577549226E-2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.5">
@@ -7899,7 +7899,7 @@
         <v>13</v>
       </c>
       <c r="C165" s="17">
-        <v>1.983942685822254</v>
+        <v>4.2164757356015173E-2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.5">
@@ -7911,7 +7911,7 @@
         <v>14</v>
       </c>
       <c r="C166" s="17">
-        <v>2.0250816551535369</v>
+        <v>4.2182160937002278E-2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.5">
@@ -7923,7 +7923,7 @@
         <v>15</v>
       </c>
       <c r="C167" s="17">
-        <v>1.807958092277874</v>
+        <v>4.2135782744623353E-2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.5">
@@ -7935,7 +7935,7 @@
         <v>16</v>
       </c>
       <c r="C168" s="17">
-        <v>1.915572574674566</v>
+        <v>4.1998184448838002E-2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.5">
@@ -7947,7 +7947,7 @@
         <v>17</v>
       </c>
       <c r="C169" s="17">
-        <v>1.832412750838625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.5">
@@ -7959,7 +7959,7 @@
         <v>18</v>
       </c>
       <c r="C170" s="17">
-        <v>1.9691836653136301</v>
+        <v>0.2892439057644694</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.5">
@@ -7971,7 +7971,7 @@
         <v>19</v>
       </c>
       <c r="C171" s="17">
-        <v>1.900231163771297</v>
+        <v>0.21433849101826033</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.5">
@@ -7983,7 +7983,7 @@
         <v>20</v>
       </c>
       <c r="C172" s="17">
-        <v>0.64065086318923803</v>
+        <v>0.20904178131786164</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.5">
@@ -7995,7 +7995,7 @@
         <v>21</v>
       </c>
       <c r="C173" s="17">
-        <v>1.0007432409214569</v>
+        <v>0.45430378582825443</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.5">
@@ -8007,7 +8007,7 @@
         <v>22</v>
       </c>
       <c r="C174" s="17">
-        <v>1.40604703552905</v>
+        <v>0.95219498837700967</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.5">
@@ -8019,7 +8019,7 @@
         <v>23</v>
       </c>
       <c r="C175" s="17">
-        <v>1.6617233488650121</v>
+        <v>0.80347484129728919</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.5">
@@ -8031,7 +8031,7 @@
         <v>24</v>
       </c>
       <c r="C176" s="17">
-        <v>1.885220289960331</v>
+        <v>0.78373801179626146</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.5">
@@ -8043,7 +8043,7 @@
         <v>25</v>
       </c>
       <c r="C177" s="17">
-        <v>1.9810377268082879</v>
+        <v>0.58424054518957991</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.5">
@@ -8055,7 +8055,7 @@
         <v>26</v>
       </c>
       <c r="C178" s="17">
-        <v>2.0086258362838332</v>
+        <v>0.56806909182748599</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.5">
@@ -8067,7 +8067,7 @@
         <v>27</v>
       </c>
       <c r="C179" s="17">
-        <v>2.0540052813565088</v>
+        <v>0.55195853861851651</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.5">
@@ -8079,7 +8079,7 @@
         <v>28</v>
       </c>
       <c r="C180" s="17">
-        <v>1.912483111302292</v>
+        <v>0.53085537543617733</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.5">
@@ -8091,7 +8091,7 @@
         <v>29</v>
       </c>
       <c r="C181" s="17">
-        <v>1.7515901565698331</v>
+        <v>0.51022195705285478</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.5">
@@ -8103,7 +8103,7 @@
         <v>30</v>
       </c>
       <c r="C182" s="17">
-        <v>1.8561440582735289</v>
+        <v>0.25064761592151857</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.5">
@@ -8115,7 +8115,7 @@
         <v>31</v>
       </c>
       <c r="C183" s="17">
-        <v>1.539008635076387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.5">
@@ -8127,7 +8127,7 @@
         <v>32</v>
       </c>
       <c r="C184" s="17">
-        <v>1.096955837387342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.5">
@@ -8139,7 +8139,7 @@
         <v>33</v>
       </c>
       <c r="C185" s="17">
-        <v>1.113457685899687</v>
+        <v>0.14178769094448287</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.5">
@@ -8151,7 +8151,7 @@
         <v>34</v>
       </c>
       <c r="C186" s="17">
-        <v>0.5418956708486502</v>
+        <v>0.24648462724270134</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.5">
@@ -8163,7 +8163,7 @@
         <v>35</v>
       </c>
       <c r="C187" s="17">
-        <v>2.0529385373528082</v>
+        <v>0.13201691608699309</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.5">
@@ -8175,7 +8175,7 @@
         <v>36</v>
       </c>
       <c r="C188" s="17">
-        <v>2.1118307994658019</v>
+        <v>4.8402358466782203E-2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.5">
@@ -8187,7 +8187,7 @@
         <v>37</v>
       </c>
       <c r="C189" s="17">
-        <v>2.0824743716639458</v>
+        <v>4.2173459146508725E-2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.5">
@@ -8199,7 +8199,7 @@
         <v>38</v>
       </c>
       <c r="C190" s="17">
-        <v>2.1051950868717002</v>
+        <v>4.2158971840812819E-2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.5">
@@ -8211,7 +8211,7 @@
         <v>39</v>
       </c>
       <c r="C191" s="17">
-        <v>1.9068159922782359</v>
+        <v>4.2066983596730681E-2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.5">
@@ -8223,7 +8223,7 @@
         <v>40</v>
       </c>
       <c r="C192" s="17">
-        <v>2.1442318470594821</v>
+        <v>2.0999092224419001E-2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.5">
@@ -8235,7 +8235,7 @@
         <v>41</v>
       </c>
       <c r="C193" s="17">
-        <v>2.193443956149046</v>
+        <v>0.1446219528822347</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.5">
@@ -8247,7 +8247,7 @@
         <v>42</v>
       </c>
       <c r="C194" s="17">
-        <v>1.8766892359577561</v>
+        <v>0.25179119839136488</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.5">
@@ -8259,7 +8259,7 @@
         <v>43</v>
       </c>
       <c r="C195" s="17">
-        <v>1.894809638903171</v>
+        <v>0.21169013616806096</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.5">
@@ -8271,7 +8271,7 @@
         <v>44</v>
       </c>
       <c r="C196" s="17">
-        <v>0.120326086869842</v>
+        <v>0.33167278357305796</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.5">
@@ -8283,7 +8283,7 @@
         <v>45</v>
       </c>
       <c r="C197" s="17">
-        <v>0.37762570790882238</v>
+        <v>0.70324938710263196</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.5">
@@ -8295,7 +8295,7 @@
         <v>46</v>
       </c>
       <c r="C198" s="17">
-        <v>0.20323456371829479</v>
+        <v>0.87783491483714937</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.5">
@@ -8307,7 +8307,7 @@
         <v>47</v>
       </c>
       <c r="C199" s="17">
-        <v>0.2065553389397087</v>
+        <v>0.79360642654677538</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.5">
@@ -8319,7 +8319,7 @@
         <v>48</v>
       </c>
       <c r="C200" s="17">
-        <v>0.13630387631615631</v>
+        <v>0.67786111355403988</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.5">
@@ -8331,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="17">
-        <v>0.30157419983201161</v>
+        <v>0.57198421531181831</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.5">
@@ -8343,7 +8343,7 @@
         <v>2</v>
       </c>
       <c r="C202" s="17">
-        <v>0.39339436903966568</v>
+        <v>0.55438432900596246</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.5">
@@ -8355,7 +8355,7 @@
         <v>3</v>
       </c>
       <c r="C203" s="17">
-        <v>0.20094193774103081</v>
+        <v>0.5335305059358606</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.5">
@@ -8367,7 +8367,7 @@
         <v>4</v>
       </c>
       <c r="C204" s="17">
-        <v>0.27518584425396603</v>
+        <v>0.51696133721834958</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.5">
@@ -8379,7 +8379,7 @@
         <v>5</v>
       </c>
       <c r="C205" s="17">
-        <v>0.48692560415721892</v>
+        <v>0.49968117353703073</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.5">
@@ -8391,7 +8391,7 @@
         <v>6</v>
       </c>
       <c r="C206" s="17">
-        <v>0.49786243136953179</v>
+        <v>0.48766820966356844</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.5">
@@ -8403,7 +8403,7 @@
         <v>7</v>
       </c>
       <c r="C207" s="17">
-        <v>0.236733930638862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.5">
@@ -8415,7 +8415,7 @@
         <v>8</v>
       </c>
       <c r="C208" s="17">
-        <v>0.2032366017583519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.5">
@@ -8427,7 +8427,7 @@
         <v>9</v>
       </c>
       <c r="C209" s="17">
-        <v>0.25844476209357831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.5">
@@ -8439,7 +8439,7 @@
         <v>10</v>
       </c>
       <c r="C210" s="17">
-        <v>0.33076471745967689</v>
+        <v>0.27885338518317748</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.5">
@@ -8451,7 +8451,7 @@
         <v>11</v>
       </c>
       <c r="C211" s="17">
-        <v>0.2285199911518902</v>
+        <v>0.21344074152638501</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.5">
@@ -8463,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="C212" s="17">
-        <v>0.18505659959412979</v>
+        <v>5.6267668768610196E-2</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.5">
@@ -8475,7 +8475,7 @@
         <v>13</v>
       </c>
       <c r="C213" s="17">
-        <v>2.111565425093592</v>
+        <v>4.2557211689073803E-2</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.5">
@@ -8487,7 +8487,7 @@
         <v>14</v>
       </c>
       <c r="C214" s="17">
-        <v>1.865654062335325</v>
+        <v>4.2094030671891255E-2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.5">
@@ -8499,7 +8499,7 @@
         <v>15</v>
       </c>
       <c r="C215" s="17">
-        <v>1.894026209357073</v>
+        <v>4.2153807991533551E-2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.5">
@@ -8511,7 +8511,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="17">
-        <v>1.907008703613396</v>
+        <v>4.1339210376960568E-2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.5">
@@ -8523,7 +8523,7 @@
         <v>17</v>
       </c>
       <c r="C217" s="17">
-        <v>1.855338207721104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.5">
@@ -8535,7 +8535,7 @@
         <v>18</v>
       </c>
       <c r="C218" s="17">
-        <v>2.0248854896378918</v>
+        <v>0.29819778890201726</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.5">
@@ -8547,7 +8547,7 @@
         <v>19</v>
       </c>
       <c r="C219" s="17">
-        <v>2.0427828473009901</v>
+        <v>0.213195432751799</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.5">
@@ -8559,7 +8559,7 @@
         <v>20</v>
       </c>
       <c r="C220" s="17">
-        <v>0.57896349883146037</v>
+        <v>0.20695218239630223</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.5">
@@ -8571,7 +8571,7 @@
         <v>21</v>
       </c>
       <c r="C221" s="17">
-        <v>1.085522117052373</v>
+        <v>0.45700282535285719</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.5">
@@ -8583,7 +8583,7 @@
         <v>22</v>
       </c>
       <c r="C222" s="17">
-        <v>1.071304703737882</v>
+        <v>0.94354279831947407</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.5">
@@ -8595,7 +8595,7 @@
         <v>23</v>
       </c>
       <c r="C223" s="17">
-        <v>1.629150073237178</v>
+        <v>0.78420661306207406</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.5">
@@ -8607,7 +8607,7 @@
         <v>24</v>
       </c>
       <c r="C224" s="17">
-        <v>1.7295986810072359</v>
+        <v>0.76714958567651548</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.5">
@@ -8619,7 +8619,7 @@
         <v>25</v>
       </c>
       <c r="C225" s="17">
-        <v>1.850726944367761</v>
+        <v>0.56318427215889044</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.5">
@@ -8631,7 +8631,7 @@
         <v>26</v>
       </c>
       <c r="C226" s="17">
-        <v>1.878593527612372</v>
+        <v>0.54395741747091164</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.5">
@@ -8643,7 +8643,7 @@
         <v>27</v>
       </c>
       <c r="C227" s="17">
-        <v>2.0032007364301712</v>
+        <v>0.52524592157710515</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.5">
@@ -8655,7 +8655,7 @@
         <v>28</v>
       </c>
       <c r="C228" s="17">
-        <v>1.9415461832461309</v>
+        <v>0.50832125537769013</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.5">
@@ -8667,7 +8667,7 @@
         <v>29</v>
       </c>
       <c r="C229" s="17">
-        <v>2.040980066243042</v>
+        <v>0.49367469160029959</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.5">
@@ -8679,7 +8679,7 @@
         <v>30</v>
       </c>
       <c r="C230" s="17">
-        <v>1.670657424818305</v>
+        <v>0.24383410483178422</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.5">
@@ -8691,7 +8691,7 @@
         <v>31</v>
       </c>
       <c r="C231" s="17">
-        <v>1.3497786533421039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.5">
@@ -8703,7 +8703,7 @@
         <v>32</v>
       </c>
       <c r="C232" s="17">
-        <v>1.2520220824024579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.5">
@@ -8715,7 +8715,7 @@
         <v>33</v>
       </c>
       <c r="C233" s="17">
-        <v>1.054051757623258</v>
+        <v>0.13942669259158874</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.5">
@@ -8727,7 +8727,7 @@
         <v>34</v>
       </c>
       <c r="C234" s="17">
-        <v>0.80063056382466846</v>
+        <v>0.24614706335478123</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.5">
@@ -8739,7 +8739,7 @@
         <v>35</v>
       </c>
       <c r="C235" s="17">
-        <v>2.1679538223060928</v>
+        <v>0.1348542051474976</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.5">
@@ -8751,7 +8751,7 @@
         <v>36</v>
       </c>
       <c r="C236" s="17">
-        <v>2.0139350819086772</v>
+        <v>4.9412440228842003E-2</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.5">
@@ -8763,7 +8763,7 @@
         <v>37</v>
       </c>
       <c r="C237" s="17">
-        <v>2.0694095652033799</v>
+        <v>4.2325621180482526E-2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.5">
@@ -8775,7 +8775,7 @@
         <v>38</v>
       </c>
       <c r="C238" s="17">
-        <v>1.854324009239394</v>
+        <v>4.2123919331712396E-2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.5">
@@ -8787,7 +8787,7 @@
         <v>39</v>
       </c>
       <c r="C239" s="17">
-        <v>1.8757803549279659</v>
+        <v>4.1746509184247063E-2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.5">
@@ -8799,7 +8799,7 @@
         <v>40</v>
       </c>
       <c r="C240" s="17">
-        <v>2.0299535110523381</v>
+        <v>2.0669605188480284E-2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.5">
@@ -8811,7 +8811,7 @@
         <v>41</v>
       </c>
       <c r="C241" s="17">
-        <v>1.95859269803317</v>
+        <v>0.14909889445100863</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.5">
@@ -8823,7 +8823,7 @@
         <v>42</v>
       </c>
       <c r="C242" s="17">
-        <v>1.863972415770885</v>
+        <v>0.25569661082690809</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.5">
@@ -8835,7 +8835,7 @@
         <v>43</v>
       </c>
       <c r="C243" s="17">
-        <v>2.056878049079093</v>
+        <v>0.21007380757405059</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.5">
@@ -8847,7 +8847,7 @@
         <v>44</v>
       </c>
       <c r="C244" s="17">
-        <v>0.34933684301138268</v>
+        <v>0.33197750387457975</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.5">
@@ -8859,7 +8859,7 @@
         <v>45</v>
       </c>
       <c r="C245" s="17">
-        <v>0.22623786047623479</v>
+        <v>0.70027281183616563</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.5">
@@ -8871,7 +8871,7 @@
         <v>46</v>
       </c>
       <c r="C246" s="17">
-        <v>0.27276309810127958</v>
+        <v>0.86387470569077396</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.5">
@@ -8883,7 +8883,7 @@
         <v>47</v>
       </c>
       <c r="C247" s="17">
-        <v>0.1170302528677854</v>
+        <v>0.77567809936929466</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.5">
@@ -8895,7 +8895,7 @@
         <v>48</v>
       </c>
       <c r="C248" s="17">
-        <v>0.36265206604823352</v>
+        <v>0.66295664261536646</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.5">
@@ -8907,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="17">
-        <v>0.47488082831900669</v>
+        <v>0.55876369955421734</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.5">
@@ -8919,7 +8919,7 @@
         <v>2</v>
       </c>
       <c r="C250" s="17">
-        <v>0.32122782831099572</v>
+        <v>0.54272996844445609</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.5">
@@ -8931,7 +8931,7 @@
         <v>3</v>
       </c>
       <c r="C251" s="17">
-        <v>0.2385149939436044</v>
+        <v>0.5236395857520838</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.5">
@@ -8943,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="C252" s="17">
-        <v>0.24390956368321859</v>
+        <v>0.50663373798512001</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.5">
@@ -8955,7 +8955,7 @@
         <v>5</v>
       </c>
       <c r="C253" s="17">
-        <v>0.39718243684943361</v>
+        <v>0.49318800899894166</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.5">
@@ -8967,7 +8967,7 @@
         <v>6</v>
       </c>
       <c r="C254" s="17">
-        <v>0.1204927248700903</v>
+        <v>0.48170782497885289</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.5">
@@ -8979,7 +8979,7 @@
         <v>7</v>
       </c>
       <c r="C255" s="17">
-        <v>0.33680974682842829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.5">
@@ -8991,7 +8991,7 @@
         <v>8</v>
       </c>
       <c r="C256" s="17">
-        <v>0.25700495925564781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.5">
@@ -9003,7 +9003,7 @@
         <v>9</v>
       </c>
       <c r="C257" s="17">
-        <v>0.14811603586213579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.5">
@@ -9015,7 +9015,7 @@
         <v>10</v>
       </c>
       <c r="C258" s="17">
-        <v>0.1329308012910701</v>
+        <v>0.27244687374318072</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.5">
@@ -9027,7 +9027,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="17">
-        <v>0.42060476966314708</v>
+        <v>0.2117612223023346</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.5">
@@ -9039,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="C260" s="17">
-        <v>0.16576469965177251</v>
+        <v>5.5694355032285307E-2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.5">
@@ -9051,7 +9051,7 @@
         <v>13</v>
       </c>
       <c r="C261" s="17">
-        <v>1.936916531914713</v>
+        <v>4.2743914339282769E-2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.5">
@@ -9063,7 +9063,7 @@
         <v>14</v>
       </c>
       <c r="C262" s="17">
-        <v>1.973023504595133</v>
+        <v>4.2069397730518543E-2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.5">
@@ -9075,7 +9075,7 @@
         <v>15</v>
       </c>
       <c r="C263" s="17">
-        <v>2.1425175432037329</v>
+        <v>4.1645678355125358E-2</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.5">
@@ -9087,7 +9087,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="17">
-        <v>2.0209342309480429</v>
+        <v>4.1467351711041218E-2</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.5">
@@ -9099,7 +9099,7 @@
         <v>17</v>
       </c>
       <c r="C265" s="17">
-        <v>1.8625770610948831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.5">
@@ -9111,7 +9111,7 @@
         <v>18</v>
       </c>
       <c r="C266" s="17">
-        <v>2.1216091015746859</v>
+        <v>0.28648393940713868</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.5">
@@ -9123,7 +9123,7 @@
         <v>19</v>
       </c>
       <c r="C267" s="17">
-        <v>2.0048891341481818</v>
+        <v>0.21472345703753282</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.5">
@@ -9135,7 +9135,7 @@
         <v>20</v>
       </c>
       <c r="C268" s="17">
-        <v>0.63144874480504554</v>
+        <v>0.20657293148218883</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.5">
@@ -9147,7 +9147,7 @@
         <v>21</v>
       </c>
       <c r="C269" s="17">
-        <v>0.91047677350769352</v>
+        <v>0.4478655303662456</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.5">
@@ -9159,7 +9159,7 @@
         <v>22</v>
       </c>
       <c r="C270" s="17">
-        <v>1.364066922450804</v>
+        <v>0.94106613564904973</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.5">
@@ -9171,7 +9171,7 @@
         <v>23</v>
       </c>
       <c r="C271" s="17">
-        <v>1.3119865373563351</v>
+        <v>0.78741132270723835</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.5">
@@ -9183,7 +9183,7 @@
         <v>24</v>
       </c>
       <c r="C272" s="17">
-        <v>1.709554154402156</v>
+        <v>0.76865609464723317</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.5">
@@ -9195,7 +9195,7 @@
         <v>25</v>
       </c>
       <c r="C273" s="17">
-        <v>2.070357774675784</v>
+        <v>0.55074683399933666</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.5">
@@ -9207,7 +9207,7 @@
         <v>26</v>
       </c>
       <c r="C274" s="17">
-        <v>1.9223974344925521</v>
+        <v>0.53318477709826995</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.5">
@@ -9219,7 +9219,7 @@
         <v>27</v>
       </c>
       <c r="C275" s="17">
-        <v>2.0240447094899801</v>
+        <v>0.51513666186860196</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.5">
@@ -9231,7 +9231,7 @@
         <v>28</v>
       </c>
       <c r="C276" s="17">
-        <v>2.0445189199922682</v>
+        <v>0.49991087349203078</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.5">
@@ -9243,7 +9243,7 @@
         <v>29</v>
       </c>
       <c r="C277" s="17">
-        <v>1.950101770918975</v>
+        <v>0.48744791698889728</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.5">
@@ -9255,7 +9255,7 @@
         <v>30</v>
       </c>
       <c r="C278" s="17">
-        <v>1.5691346794643211</v>
+        <v>0.24085391248942645</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.5">
@@ -9267,7 +9267,7 @@
         <v>31</v>
       </c>
       <c r="C279" s="17">
-        <v>1.491796207028051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.5">
@@ -9279,7 +9279,7 @@
         <v>32</v>
       </c>
       <c r="C280" s="17">
-        <v>1.4248209538922501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.5">
@@ -9291,7 +9291,7 @@
         <v>33</v>
       </c>
       <c r="C281" s="17">
-        <v>0.80985166593109881</v>
+        <v>0.13622343687159036</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.5">
@@ -9303,7 +9303,7 @@
         <v>34</v>
       </c>
       <c r="C282" s="17">
-        <v>0.6000324156269885</v>
+        <v>0.24210404802275765</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.5">
@@ -9315,7 +9315,7 @@
         <v>35</v>
       </c>
       <c r="C283" s="17">
-        <v>2.0685020250294488</v>
+        <v>0.13372778866730997</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.5">
@@ -9327,7 +9327,7 @@
         <v>36</v>
       </c>
       <c r="C284" s="17">
-        <v>1.940413309119239</v>
+        <v>4.9219134685784045E-2</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.5">
@@ -9339,7 +9339,7 @@
         <v>37</v>
       </c>
       <c r="C285" s="17">
-        <v>1.8894890193963509</v>
+        <v>4.240665603490066E-2</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.5">
@@ -9351,7 +9351,7 @@
         <v>38</v>
       </c>
       <c r="C286" s="17">
-        <v>1.9403828184586711</v>
+        <v>4.1857538042821954E-2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.5">
@@ -9363,7 +9363,7 @@
         <v>39</v>
       </c>
       <c r="C287" s="17">
-        <v>2.003572790486043</v>
+        <v>4.1556515033083295E-2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.5">
@@ -9375,7 +9375,7 @@
         <v>40</v>
       </c>
       <c r="C288" s="17">
-        <v>2.082694512096249</v>
+        <v>2.0733675855520609E-2</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.5">
@@ -9387,7 +9387,7 @@
         <v>41</v>
       </c>
       <c r="C289" s="17">
-        <v>2.161019804839726</v>
+        <v>0.14324196970356934</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.5">
@@ -9399,7 +9399,7 @@
         <v>42</v>
       </c>
       <c r="C290" s="17">
-        <v>2.146749622717985</v>
+        <v>0.25060369822233575</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.5">
@@ -9411,7 +9411,7 @@
         <v>43</v>
       </c>
       <c r="C291" s="17">
-        <v>1.890428377573633</v>
+        <v>0.21064819425986084</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.5">
@@ -9423,7 +9423,7 @@
         <v>44</v>
       </c>
       <c r="C292" s="17">
-        <v>0.1712570320232415</v>
+        <v>0.32721923092421717</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.5">
@@ -9435,7 +9435,7 @@
         <v>45</v>
       </c>
       <c r="C293" s="17">
-        <v>0.16121854700129579</v>
+        <v>0.69446583300764764</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.5">
@@ -9447,7 +9447,7 @@
         <v>46</v>
       </c>
       <c r="C294" s="17">
-        <v>0.45418894018390182</v>
+        <v>0.86423872917814393</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.5">
@@ -9459,7 +9459,7 @@
         <v>47</v>
       </c>
       <c r="C295" s="17">
-        <v>0.46672958378839757</v>
+        <v>0.77803370867723587</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.5">
@@ -9471,7 +9471,7 @@
         <v>48</v>
       </c>
       <c r="C296" s="17">
-        <v>0.43547470266335447</v>
+        <v>0.66825487624232671</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.5">
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="17">
-        <v>0.4691746477413451</v>
+        <v>0.56785365783742026</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.5">
@@ -9495,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="C298" s="17">
-        <v>0.22332094207392791</v>
+        <v>0.55288661174531617</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.5">
@@ -9507,7 +9507,7 @@
         <v>3</v>
       </c>
       <c r="C299" s="17">
-        <v>0.27620674064699802</v>
+        <v>0.53251169857615821</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.5">
@@ -9519,7 +9519,7 @@
         <v>4</v>
       </c>
       <c r="C300" s="17">
-        <v>0.1247516266760165</v>
+        <v>0.51440943900228087</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.5">
@@ -9531,7 +9531,7 @@
         <v>5</v>
       </c>
       <c r="C301" s="17">
-        <v>0.16111072895612261</v>
+        <v>0.50054176379484983</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.5">
@@ -9543,7 +9543,7 @@
         <v>6</v>
       </c>
       <c r="C302" s="17">
-        <v>0.37295052143915269</v>
+        <v>0.4877752889651647</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.5">
@@ -9555,7 +9555,7 @@
         <v>7</v>
       </c>
       <c r="C303" s="17">
-        <v>0.45206123825823558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.5">
@@ -9567,7 +9567,7 @@
         <v>8</v>
       </c>
       <c r="C304" s="17">
-        <v>0.14202953930408829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.5">
@@ -9579,7 +9579,7 @@
         <v>9</v>
       </c>
       <c r="C305" s="17">
-        <v>0.39444431065288932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.5">
@@ -9591,7 +9591,7 @@
         <v>10</v>
       </c>
       <c r="C306" s="17">
-        <v>0.49253273629041139</v>
+        <v>0.26955821308297345</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.5">
@@ -9603,7 +9603,7 @@
         <v>11</v>
       </c>
       <c r="C307" s="17">
-        <v>0.2788778426651552</v>
+        <v>0.25519156175589208</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.5">
@@ -9615,7 +9615,7 @@
         <v>12</v>
       </c>
       <c r="C308" s="17">
-        <v>0.27332793613979572</v>
+        <v>4.0588121916484324E-2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.5">
@@ -9627,7 +9627,7 @@
         <v>13</v>
       </c>
       <c r="C309" s="17">
-        <v>2.0482576775672769</v>
+        <v>4.1496493193826915E-2</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.5">
@@ -9639,7 +9639,7 @@
         <v>14</v>
       </c>
       <c r="C310" s="17">
-        <v>2.186557973594311</v>
+        <v>4.1778330968560304E-2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.5">
@@ -9651,7 +9651,7 @@
         <v>15</v>
       </c>
       <c r="C311" s="17">
-        <v>1.883730299647707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.5">
@@ -9663,7 +9663,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="17">
-        <v>1.8856821503684951</v>
+        <v>5.0993330183998618E-2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.5">
@@ -9675,7 +9675,7 @@
         <v>17</v>
       </c>
       <c r="C313" s="17">
-        <v>1.8960770592834899</v>
+        <v>4.1541297795295772E-2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.5">
@@ -9687,7 +9687,7 @@
         <v>18</v>
       </c>
       <c r="C314" s="17">
-        <v>1.941952527502439</v>
+        <v>0.33394634056808303</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.5">
@@ -9699,7 +9699,7 @@
         <v>19</v>
       </c>
       <c r="C315" s="17">
-        <v>2.160459509131663</v>
+        <v>0.25128758036804011</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.5">
@@ -9711,7 +9711,7 @@
         <v>20</v>
       </c>
       <c r="C316" s="17">
-        <v>0.60462962532958464</v>
+        <v>0.20323468419767857</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.5">
@@ -9723,7 +9723,7 @@
         <v>21</v>
       </c>
       <c r="C317" s="17">
-        <v>1.1501238479303491</v>
+        <v>0.44362744636592533</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.5">
@@ -9735,7 +9735,7 @@
         <v>22</v>
       </c>
       <c r="C318" s="17">
-        <v>1.1049361536346549</v>
+        <v>0.93638785588732365</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.5">
@@ -9747,7 +9747,7 @@
         <v>23</v>
       </c>
       <c r="C319" s="17">
-        <v>1.3261573022665269</v>
+        <v>0.78120419843181266</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.5">
@@ -9759,7 +9759,7 @@
         <v>24</v>
       </c>
       <c r="C320" s="17">
-        <v>1.7262960004874259</v>
+        <v>0.7527412552850653</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.5">
@@ -9771,7 +9771,7 @@
         <v>25</v>
       </c>
       <c r="C321" s="17">
-        <v>1.773475764789094</v>
+        <v>0.56037013479136821</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.5">
@@ -9783,7 +9783,7 @@
         <v>26</v>
       </c>
       <c r="C322" s="17">
-        <v>1.9044499403881361</v>
+        <v>0.54269915516073719</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.5">
@@ -9795,7 +9795,7 @@
         <v>27</v>
       </c>
       <c r="C323" s="17">
-        <v>2.1043956378713262</v>
+        <v>0.52346056878921954</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.5">
@@ -9807,7 +9807,7 @@
         <v>28</v>
       </c>
       <c r="C324" s="17">
-        <v>1.925455572950459</v>
+        <v>0.50747560139856529</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.5">
@@ -9819,7 +9819,7 @@
         <v>29</v>
       </c>
       <c r="C325" s="17">
-        <v>1.9548096060977269</v>
+        <v>0.49415852638000718</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.5">
@@ -9831,7 +9831,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="17">
-        <v>1.8554662165593441</v>
+        <v>0.24388764448258235</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.5">
@@ -9843,7 +9843,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="17">
-        <v>1.579896058201737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.5">
@@ -9855,7 +9855,7 @@
         <v>32</v>
       </c>
       <c r="C328" s="17">
-        <v>1.348847753183485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.5">
@@ -9867,7 +9867,7 @@
         <v>33</v>
       </c>
       <c r="C329" s="17">
-        <v>0.90153946255076778</v>
+        <v>0.13477910654148673</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.5">
@@ -9879,7 +9879,7 @@
         <v>34</v>
       </c>
       <c r="C330" s="17">
-        <v>0.67186706004720431</v>
+        <v>0.26237488741943277</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.5">
@@ -9891,7 +9891,7 @@
         <v>35</v>
       </c>
       <c r="C331" s="17">
-        <v>2.0691959674825542</v>
+        <v>0.14788984183618822</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.5">
@@ -9903,7 +9903,7 @@
         <v>36</v>
       </c>
       <c r="C332" s="17">
-        <v>1.9473543797019011</v>
+        <v>4.1042307555155616E-2</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.5">
@@ -9915,7 +9915,7 @@
         <v>37</v>
       </c>
       <c r="C333" s="17">
-        <v>2.005398406873466</v>
+        <v>4.1637412081193606E-2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.5">
@@ -9927,7 +9927,7 @@
         <v>38</v>
       </c>
       <c r="C334" s="17">
-        <v>1.8074095686990459</v>
+        <v>2.0889165484280152E-2</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.5">
@@ -9939,7 +9939,7 @@
         <v>39</v>
       </c>
       <c r="C335" s="17">
-        <v>1.9025071081092499</v>
+        <v>2.5496665091999309E-2</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.5">
@@ -9951,7 +9951,7 @@
         <v>40</v>
       </c>
       <c r="C336" s="17">
-        <v>2.192628735299595</v>
+        <v>4.6267313989647195E-2</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.5">
@@ -9963,7 +9963,7 @@
         <v>41</v>
       </c>
       <c r="C337" s="17">
-        <v>1.822663152733095</v>
+        <v>0.18774381918168942</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.5">
@@ -9975,7 +9975,7 @@
         <v>42</v>
       </c>
       <c r="C338" s="17">
-        <v>1.9740715157622339</v>
+        <v>0.29261696046806157</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.5">
@@ -9987,7 +9987,7 @@
         <v>43</v>
       </c>
       <c r="C339" s="17">
-        <v>1.904476026067611</v>
+        <v>0.22726113228285932</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.5">
@@ -9999,7 +9999,7 @@
         <v>44</v>
       </c>
       <c r="C340" s="17">
-        <v>0.1270721529261449</v>
+        <v>0.32343106528180193</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.5">
@@ -10011,7 +10011,7 @@
         <v>45</v>
       </c>
       <c r="C341" s="17">
-        <v>0.26461649577497709</v>
+        <v>0.69000765112662443</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.5">
@@ -10023,7 +10023,7 @@
         <v>46</v>
       </c>
       <c r="C342" s="17">
-        <v>0.29193837036982961</v>
+        <v>0.85879602715956815</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.5">
@@ -10035,7 +10035,7 @@
         <v>47</v>
       </c>
       <c r="C343" s="17">
-        <v>0.42476261622698369</v>
+        <v>0.76697272685843898</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.5">
@@ -10047,7 +10047,7 @@
         <v>48</v>
       </c>
       <c r="C344" s="17">
-        <v>0.32388943301091871</v>
+        <v>0.65106649860608001</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.5">
